--- a/Word Freeak/R Codes/Question Data/SpatialWordO.xlsx
+++ b/Word Freeak/R Codes/Question Data/SpatialWordO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -37,6 +37,33 @@
   </si>
   <si>
     <t>CBA</t>
+  </si>
+  <si>
+    <t>A1 WO</t>
+  </si>
+  <si>
+    <t>A2 WO</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t>Which Ans is WO</t>
+  </si>
+  <si>
+    <t>Is Ans WO?</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>NambiSpa</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>BCA</t>
   </si>
 </sst>
 </file>
@@ -52,12 +79,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,15 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D25"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +437,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,8 +470,29 @@
         <f>IF(B2=C2,"SAME","DIFFERENT")</f>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2=C2,"2","1")</f>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>IF(B2=E2,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>IF((ABS(G2)=(ABS(H2))),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -423,8 +506,29 @@
         <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"SAME","DIFFERENT")</f>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="1">IF(F3=C3,"2","1")</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H25" si="2">IF(B3=E3,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I25" si="3">IF((ABS(G3)=(ABS(H3))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -438,8 +542,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -453,8 +578,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,8 +614,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -483,8 +650,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -498,8 +686,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -513,8 +722,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -528,8 +758,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -543,8 +794,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -558,8 +830,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -573,8 +866,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -588,8 +902,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -603,8 +938,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -618,8 +974,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -633,8 +1010,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -648,8 +1046,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -663,8 +1082,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -678,8 +1118,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -693,8 +1154,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -708,8 +1190,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -723,8 +1226,29 @@
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -738,8 +1262,29 @@
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -752,6 +1297,27 @@
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Word Freeak/R Codes/Question Data/SpatialWordO.xlsx
+++ b/Word Freeak/R Codes/Question Data/SpatialWordO.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Spatial Word Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct Spatial Order </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="18">
   <si>
     <t>ABC</t>
   </si>
@@ -64,6 +55,21 @@
   </si>
   <si>
     <t>BCA</t>
+  </si>
+  <si>
+    <t>AmbiSpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct Order </t>
+  </si>
+  <si>
+    <t>Word Order</t>
+  </si>
+  <si>
+    <t>Is Dif?</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,31 +435,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -461,20 +470,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(B2=C2,"SAME","DIFFERENT")</f>
         <v>DIFFERENT</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(F2=C2,"2","1")</f>
@@ -489,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -497,20 +506,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"SAME","DIFFERENT")</f>
         <v>DIFFERENT</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G25" si="1">IF(F3=C3,"2","1")</f>
@@ -525,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -533,20 +542,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
@@ -561,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -569,20 +578,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -597,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -605,20 +614,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
@@ -633,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,20 +650,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -669,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -677,20 +686,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -705,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,20 +722,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,20 +758,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -777,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -785,20 +794,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -813,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,20 +830,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -849,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -857,20 +866,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -885,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,20 +902,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,20 +938,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -957,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -965,20 +974,20 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -993,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,20 +1010,20 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -1029,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,20 +1046,20 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -1065,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,20 +1082,20 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -1101,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1109,20 +1118,20 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
@@ -1137,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,20 +1154,20 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
@@ -1173,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1181,20 +1190,20 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -1209,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,20 +1226,20 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>DIFFERENT</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
@@ -1245,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1253,20 +1262,20 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
@@ -1281,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,20 +1298,20 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>SAME</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1317,6 +1326,870 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(B26=C26,"SAME","DIFFERENT")</f>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(F26=C26,"2","1")</f>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f>IF(B26=E26,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f>IF((ABS(G26)=(ABS(H26))),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27:D49" si="4">IF(B27=C27,"SAME","DIFFERENT")</f>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27:G49" si="5">IF(F27=C27,"2","1")</f>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H49" si="6">IF(B27=E27,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I49" si="7">IF((ABS(G27)=(ABS(H27))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="4"/>
+        <v>DIFFERENT</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="4"/>
+        <v>SAME</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
         <v>13</v>
       </c>
     </row>
